--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/67.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/67.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1813885423857857</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.553441855187764</v>
+        <v>-1.550018363598935</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0135626498988476</v>
+        <v>0.01540425227076941</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1205532233506988</v>
+        <v>-0.1118252873230865</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1745438797722381</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.552516331944439</v>
+        <v>-1.54593457098872</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02485466307505874</v>
+        <v>0.02769261955076388</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.078419879511722</v>
+        <v>-0.06779367642382104</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1743765632151711</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.634308661563708</v>
+        <v>-1.631161410330667</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03691299528302285</v>
+        <v>-0.03544915750021321</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.08547935527075558</v>
+        <v>-0.07469102821336066</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1826619199929031</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.782113779111206</v>
+        <v>-1.78255450446517</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09982024348492614</v>
+        <v>-0.1032610492840894</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0896615240760515</v>
+        <v>-0.07845608195151191</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1948758786070407</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.855122295024057</v>
+        <v>-1.865221988715883</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.135347429071804</v>
+        <v>-0.142419496983808</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.08911848747920277</v>
+        <v>-0.07845922998975451</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2029106877767133</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.67658130609492</v>
+        <v>-1.68616550852452</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1571916664372149</v>
+        <v>-0.1727429753556657</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.09350370475114649</v>
+        <v>-0.08588073014668725</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2019090604400186</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.329886280418109</v>
+        <v>-1.329565967526924</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1687276525772277</v>
+        <v>-0.1849904181385064</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04440532630041413</v>
+        <v>-0.03373347665799546</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.190762527716213</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.7948519967820643</v>
+        <v>-0.782428263857638</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1179608138579166</v>
+        <v>-0.1391455372115025</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05872103020864388</v>
+        <v>-0.05187719506922849</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1699660586434009</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2373958107630915</v>
+        <v>-0.2161434045872896</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1361438827471821</v>
+        <v>-0.1634295042149295</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0245398592507986</v>
+        <v>0.035754745490066</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1411610475839467</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3578085018229145</v>
+        <v>0.3884436359807898</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1560174481727246</v>
+        <v>-0.1801534573787494</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09815673355403176</v>
+        <v>0.1091087586000419</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1047531275528436</v>
       </c>
       <c r="E12" t="n">
-        <v>1.030934631008911</v>
+        <v>1.069691703832698</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2553034263061294</v>
+        <v>-0.2899428651085936</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1567196889811452</v>
+        <v>0.1637461103386314</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.06024849690949979</v>
       </c>
       <c r="E13" t="n">
-        <v>1.737847080633627</v>
+        <v>1.787806447543711</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4215481778596654</v>
+        <v>-0.4590271471569561</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2651884946682181</v>
+        <v>0.27394004098265</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.007703809813578878</v>
       </c>
       <c r="E14" t="n">
-        <v>2.40981945380371</v>
+        <v>2.464023950283942</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6664907374399932</v>
+        <v>-0.7059671370022145</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3735911915521965</v>
+        <v>0.3820751546160072</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.05270712709492848</v>
       </c>
       <c r="E15" t="n">
-        <v>3.124805047501577</v>
+        <v>3.184310840382349</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9669883019066289</v>
+        <v>-1.009504132392082</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5192225886931787</v>
+        <v>0.5293104772415949</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.121064535517737</v>
       </c>
       <c r="E16" t="n">
-        <v>3.807622412417422</v>
+        <v>3.869449883502113</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.203010895126546</v>
+        <v>-1.245745514269859</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6810836969938924</v>
+        <v>0.6919098005101986</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1961386658674208</v>
       </c>
       <c r="E17" t="n">
-        <v>4.481907019676695</v>
+        <v>4.549322258642004</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.506363730279221</v>
+        <v>-1.555625019709008</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8530500080533564</v>
+        <v>0.8640004590802454</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2767641790248422</v>
       </c>
       <c r="E18" t="n">
-        <v>5.166655706054376</v>
+        <v>5.243933748833755</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.714786685216691</v>
+        <v>-1.761857727039188</v>
       </c>
       <c r="G18" t="n">
-        <v>1.011352259120809</v>
+        <v>1.022434927753887</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3612573620147249</v>
       </c>
       <c r="E19" t="n">
-        <v>5.64627664652503</v>
+        <v>5.721908265303528</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.95354728469811</v>
+        <v>-2.005318347616811</v>
       </c>
       <c r="G19" t="n">
-        <v>1.176045027820743</v>
+        <v>1.186710581386676</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.445740412928354</v>
       </c>
       <c r="E20" t="n">
-        <v>6.088967950371727</v>
+        <v>6.171492198882401</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.102116588529</v>
+        <v>-2.152495431534911</v>
       </c>
       <c r="G20" t="n">
-        <v>1.302994392011007</v>
+        <v>1.31335615988653</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5264043863722196</v>
       </c>
       <c r="E21" t="n">
-        <v>6.373589957980925</v>
+        <v>6.45227989591211</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.296829049910381</v>
+        <v>-2.344563540792505</v>
       </c>
       <c r="G21" t="n">
-        <v>1.415864155161237</v>
+        <v>1.424566906882908</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6012564868906075</v>
       </c>
       <c r="E22" t="n">
-        <v>6.70632500807092</v>
+        <v>6.787715962814256</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.389051617236948</v>
+        <v>-2.431585548942296</v>
       </c>
       <c r="G22" t="n">
-        <v>1.507941125719084</v>
+        <v>1.514915604445568</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6684476423456921</v>
       </c>
       <c r="E23" t="n">
-        <v>6.825992959806046</v>
+        <v>6.905899614517997</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.474727052028466</v>
+        <v>-2.514262477307736</v>
       </c>
       <c r="G23" t="n">
-        <v>1.606791100555889</v>
+        <v>1.612493771832361</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7260657487683509</v>
       </c>
       <c r="E24" t="n">
-        <v>6.95175551357885</v>
+        <v>7.027819987615707</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.522147526095892</v>
+        <v>-2.557279632883323</v>
       </c>
       <c r="G24" t="n">
-        <v>1.608084944273598</v>
+        <v>1.612625989438551</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7731564923951438</v>
       </c>
       <c r="E25" t="n">
-        <v>7.029334194010397</v>
+        <v>7.105310522976461</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.531891491466304</v>
+        <v>-2.567633530663239</v>
       </c>
       <c r="G25" t="n">
-        <v>1.65133741570782</v>
+        <v>1.655069415044424</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8089677247815363</v>
       </c>
       <c r="E26" t="n">
-        <v>7.008629546488808</v>
+        <v>7.07710095228451</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.56255180993012</v>
+        <v>-2.601931407316381</v>
       </c>
       <c r="G26" t="n">
-        <v>1.664563898384109</v>
+        <v>1.662013987407602</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8329122226339554</v>
       </c>
       <c r="E27" t="n">
-        <v>6.931420760550767</v>
+        <v>6.994474392530951</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.453019754326608</v>
+        <v>-2.484512728905592</v>
       </c>
       <c r="G27" t="n">
-        <v>1.627314735878529</v>
+        <v>1.625860342210447</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8450138312593521</v>
       </c>
       <c r="E28" t="n">
-        <v>6.789285259878193</v>
+        <v>6.843780949895866</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.368982873440364</v>
+        <v>-2.391675507112156</v>
       </c>
       <c r="G28" t="n">
-        <v>1.560928905418551</v>
+        <v>1.553342133253881</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8459256813652775</v>
       </c>
       <c r="E29" t="n">
-        <v>6.619064536024251</v>
+        <v>6.667095729510742</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.28535602453522</v>
+        <v>-2.307940050887642</v>
       </c>
       <c r="G29" t="n">
-        <v>1.505258997136388</v>
+        <v>1.495106573803999</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.836424281269916</v>
       </c>
       <c r="E30" t="n">
-        <v>6.419066518433544</v>
+        <v>6.457611098675955</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.232934891719422</v>
+        <v>-2.252739987313187</v>
       </c>
       <c r="G30" t="n">
-        <v>1.437804407693047</v>
+        <v>1.428509824781767</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.817636860805563</v>
       </c>
       <c r="E31" t="n">
-        <v>6.122041240148498</v>
+        <v>6.151983805893001</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.023171659500164</v>
+        <v>-2.030789912047259</v>
       </c>
       <c r="G31" t="n">
-        <v>1.357173704185298</v>
+        <v>1.347304604294743</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7913679029333147</v>
       </c>
       <c r="E32" t="n">
-        <v>5.847368607405042</v>
+        <v>5.869744863233453</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.88858672855247</v>
+        <v>-1.891042198381699</v>
       </c>
       <c r="G32" t="n">
-        <v>1.265550051134385</v>
+        <v>1.251043890912478</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7590139496834897</v>
       </c>
       <c r="E33" t="n">
-        <v>5.473205374042413</v>
+        <v>5.486472781215856</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.81390896536148</v>
+        <v>-1.813136121972922</v>
       </c>
       <c r="G33" t="n">
-        <v>1.184325942417906</v>
+        <v>1.168757319289121</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7226773981973972</v>
       </c>
       <c r="E34" t="n">
-        <v>5.151019400103375</v>
+        <v>5.156054687272416</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.731986779164704</v>
+        <v>-1.73088024372243</v>
       </c>
       <c r="G34" t="n">
-        <v>1.062430753626138</v>
+        <v>1.044231944545659</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6846123827851127</v>
       </c>
       <c r="E35" t="n">
-        <v>4.730534358019988</v>
+        <v>4.727425670255419</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.678840810543547</v>
+        <v>-1.676331037054633</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9910426903986664</v>
+        <v>0.9735506159036519</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6464536717814248</v>
       </c>
       <c r="E36" t="n">
-        <v>4.254941332480743</v>
+        <v>4.246085900904306</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.589478235960382</v>
+        <v>-1.582549403788417</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9195224095650057</v>
+        <v>0.8995024603611823</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6091759253713211</v>
       </c>
       <c r="E37" t="n">
-        <v>3.86859991317661</v>
+        <v>3.851948364892371</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.555747793200469</v>
+        <v>-1.548905532080175</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8432989595968987</v>
+        <v>0.8246310928182725</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.57362293864575</v>
       </c>
       <c r="E38" t="n">
-        <v>3.510378345474515</v>
+        <v>3.486938052720105</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.462399015192611</v>
+        <v>-1.454867333697187</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7445906464810113</v>
+        <v>0.7238718327873302</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5404857335830383</v>
       </c>
       <c r="E39" t="n">
-        <v>3.068422108557465</v>
+        <v>3.03755716760788</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.435863413836163</v>
+        <v>-1.428038177774617</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6855806696234484</v>
+        <v>0.6672512169559019</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5099238072106588</v>
       </c>
       <c r="E40" t="n">
-        <v>2.643663604559747</v>
+        <v>2.604862459200564</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.430947752120341</v>
+        <v>-1.423024139863713</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6127822852632916</v>
+        <v>0.5934438863389914</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4826605266327331</v>
       </c>
       <c r="E41" t="n">
-        <v>2.294673659004079</v>
+        <v>2.255680483312097</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.393829233201828</v>
+        <v>-1.384167116825724</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5596843242253342</v>
+        <v>0.5400075111899544</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4586804302781953</v>
       </c>
       <c r="E42" t="n">
-        <v>1.915462546319439</v>
+        <v>1.873861220943462</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.363203543158681</v>
+        <v>-1.353809797042758</v>
       </c>
       <c r="G42" t="n">
-        <v>0.496227743350097</v>
+        <v>0.4772104443265421</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4371867259087655</v>
       </c>
       <c r="E43" t="n">
-        <v>1.679556430514499</v>
+        <v>1.639135619479497</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.345663461080466</v>
+        <v>-1.339030544503305</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4204890912713505</v>
+        <v>0.4012813359341182</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4172702054498623</v>
       </c>
       <c r="E44" t="n">
-        <v>1.47426970867622</v>
+        <v>1.438552066775665</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.346253718250954</v>
+        <v>-1.340250409322313</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3575031421133822</v>
+        <v>0.3405556782343377</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3978427925922839</v>
       </c>
       <c r="E45" t="n">
-        <v>1.251122591868543</v>
+        <v>1.214481000743784</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.275010464782642</v>
+        <v>-1.268534950117611</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2956866891625403</v>
+        <v>0.2764978220547636</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3779401312885906</v>
       </c>
       <c r="E46" t="n">
-        <v>1.027245130188582</v>
+        <v>0.9902745690674717</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.21550545891143</v>
+        <v>-1.209700476392074</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2645274066372719</v>
+        <v>0.2484850037529752</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3569185946894428</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9025041148255027</v>
+        <v>0.8664024122593501</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.160855515019871</v>
+        <v>-1.153115275990874</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1861837529127727</v>
+        <v>0.1683910407655898</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3346554154362059</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7481258934274526</v>
+        <v>0.717693807736225</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.087385811504479</v>
+        <v>-1.079342573794632</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1352374760136334</v>
+        <v>0.1210382495203799</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3111437205487926</v>
       </c>
       <c r="E49" t="n">
-        <v>0.581056355854355</v>
+        <v>0.5490156226211582</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.032716192373903</v>
+        <v>-1.026919866959713</v>
       </c>
       <c r="G49" t="n">
-        <v>0.08715119185789735</v>
+        <v>0.0719209828401919</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2869297349725748</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5057033384603271</v>
+        <v>0.4756379992243627</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9807948106291179</v>
+        <v>-0.9775460351627532</v>
       </c>
       <c r="G50" t="n">
-        <v>0.07946997854595</v>
+        <v>0.06843610450563219</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2631066190664985</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3875826475214383</v>
+        <v>0.357978495888015</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9637348043829004</v>
+        <v>-0.9615217334983516</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0771687625906084</v>
+        <v>0.06975985458664606</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2404281751518106</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2633264300477194</v>
+        <v>0.2405881498214097</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9731765580820225</v>
+        <v>-0.9746828943811072</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01563720710072191</v>
+        <v>0.006057726728485923</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2197781130850942</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1931912860408034</v>
+        <v>0.1684115030141667</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9277794855950288</v>
+        <v>-0.923286448013276</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02859610652639047</v>
+        <v>0.02236141678691845</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2023066596616686</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1084870210471282</v>
+        <v>0.09298922877880161</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9035529702895292</v>
+        <v>-0.9025345799180476</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.008418527130116503</v>
+        <v>-0.01393389013115411</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1887096492760538</v>
       </c>
       <c r="E55" t="n">
-        <v>0.07333287799199861</v>
+        <v>0.06548954071055729</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9223066211102663</v>
+        <v>-0.9239892475509367</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.02154269856352164</v>
+        <v>-0.02703917333510364</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1791919945478732</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.0003973256879681981</v>
+        <v>-0.006247954761842854</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9382978683731206</v>
+        <v>-0.9424217984709283</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.05182840047646817</v>
+        <v>-0.05582955708281452</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1736463279268262</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.09278437801271207</v>
+        <v>-0.09710663451980375</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9744711888092923</v>
+        <v>-0.9814747868895197</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08860220920741614</v>
+        <v>-0.09180219008102043</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1714157279010835</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1264384808452421</v>
+        <v>-0.128097496999093</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9780882847500413</v>
+        <v>-0.9871971334050084</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1124596170289707</v>
+        <v>-0.1148647182463181</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1712027884181457</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1957472648134753</v>
+        <v>-0.1955221800791292</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.982331840301068</v>
+        <v>-0.9901122168176573</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1216518886973667</v>
+        <v>-0.1219761366363546</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1719742582831606</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2667260830694085</v>
+        <v>-0.2626588176599675</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.02879137569494</v>
+        <v>-1.04039740568585</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.128113237190306</v>
+        <v>-0.1273797442797799</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1723248621025875</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3361245861275558</v>
+        <v>-0.3291217750568891</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.009094100410983</v>
+        <v>-1.020439630237318</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1654961913211973</v>
+        <v>-0.1645596499440234</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1710223694073408</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.465622287275206</v>
+        <v>-0.4604107099645794</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.055205777579047</v>
+        <v>-1.070763382573983</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1880550333676788</v>
+        <v>-0.1880377191573445</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1671570019922486</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5236847046217458</v>
+        <v>-0.5205461104938722</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.093464673350942</v>
+        <v>-1.113438188990687</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2231257534093794</v>
+        <v>-0.2231383455623498</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1599955573376119</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6648868119553879</v>
+        <v>-0.6614286919458903</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.137521468556149</v>
+        <v>-1.158891139156487</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2756728077548816</v>
+        <v>-0.2774845037634987</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1494887106090346</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8316997844117134</v>
+        <v>-0.8292372314964386</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.210234855883755</v>
+        <v>-1.234565256451261</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3421609494577439</v>
+        <v>-0.345323153872437</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1364545602377508</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9456068261628803</v>
+        <v>-0.9445671865332612</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.239124402836108</v>
+        <v>-1.263834142011847</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3734508755700803</v>
+        <v>-0.375925233628765</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1221947500381515</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.04385788672403</v>
+        <v>-1.046961852431235</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.306785188784339</v>
+        <v>-1.334709075005774</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4426290159512455</v>
+        <v>-0.4493941501345959</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1078582175442578</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.161832980894199</v>
+        <v>-1.172001931427362</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.38036271260954</v>
+        <v>-1.412323170867551</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.454116207498498</v>
+        <v>-0.4563812210140497</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.09501004871693181</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.342027476910262</v>
+        <v>-1.35986347458328</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.440583110171383</v>
+        <v>-1.474247444128201</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4907389103938011</v>
+        <v>-0.4942851754740915</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.0848640883263293</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.404678159995393</v>
+        <v>-1.424480107550916</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.537189320750773</v>
+        <v>-1.574976010786278</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.534857092344738</v>
+        <v>-0.5408257728527103</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.07849953090668646</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.470851497873995</v>
+        <v>-1.493684219247583</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.585095379717121</v>
+        <v>-1.62709886697859</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5990392960348949</v>
+        <v>-0.608100924116223</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.07693836477619258</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.550231643189871</v>
+        <v>-1.574664355000261</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.628902692891601</v>
+        <v>-1.669810662844645</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5970812162479968</v>
+        <v>-0.6085904440629475</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.08038606593781232</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.62338418185232</v>
+        <v>-1.657612801664125</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.631284970831689</v>
+        <v>-1.671007704386394</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6316120477310914</v>
+        <v>-0.6454161954248984</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.08903798399202205</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.681274244105078</v>
+        <v>-1.719389117127374</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.661763490086995</v>
+        <v>-1.700304922291164</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6354746906547633</v>
+        <v>-0.6487499679238132</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.1024709978173549</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.690283142545842</v>
+        <v>-1.733356175800236</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.645806084235249</v>
+        <v>-1.682546051555089</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6565586767845859</v>
+        <v>-0.6703329181150882</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.1202131830687977</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.60185553532073</v>
+        <v>-1.643829116218895</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.721899677625848</v>
+        <v>-1.762006471846151</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6403651680646445</v>
+        <v>-0.6547485547950901</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.1413480764271268</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.536063110069483</v>
+        <v>-1.573199730207891</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.728913506830364</v>
+        <v>-1.767797288193416</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6139295169223994</v>
+        <v>-0.6278816224136087</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.1647904744314669</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.362939894955863</v>
+        <v>-1.400191418490125</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.666546934196628</v>
+        <v>-1.702211059447059</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5730365001510075</v>
+        <v>-0.5865982489001342</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.1888091664027166</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.237027809366535</v>
+        <v>-1.272703739760376</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.631085070403284</v>
+        <v>-1.663073861005478</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5880919930462486</v>
+        <v>-0.6053888891702218</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.2121521836807975</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.048826278080416</v>
+        <v>-1.081354170231655</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.587794822510151</v>
+        <v>-1.616484469034099</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5758681605502275</v>
+        <v>-0.593553839397162</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.2332756150080558</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.9028297085032916</v>
+        <v>-0.9355614361307393</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.542623621767064</v>
+        <v>-1.567527752304283</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5394170257391462</v>
+        <v>-0.5559552446466525</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2512262197069655</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6752973744236707</v>
+        <v>-0.700845278781502</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.528373239652368</v>
+        <v>-1.551361788918965</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4849150396449885</v>
+        <v>-0.4987616858550707</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.2652745159275869</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.4614117861257266</v>
+        <v>-0.4846474563943674</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.412635613663129</v>
+        <v>-1.42723149297495</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3980307581683118</v>
+        <v>-0.4108511439113059</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.2752435125912893</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.2610785024621816</v>
+        <v>-0.2811834486985553</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.368422990564914</v>
+        <v>-1.377854513139747</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3745353747446565</v>
+        <v>-0.3867954096804676</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2810310230852368</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.06433713043344473</v>
+        <v>-0.08285389137642603</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.236716153580518</v>
+        <v>-1.243116115327727</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3534797209590172</v>
+        <v>-0.3685273437586518</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2828481132571233</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2089424953876594</v>
+        <v>0.1938413559379006</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.120716453407582</v>
+        <v>-1.12334034328279</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2901112851545728</v>
+        <v>-0.3061757243065676</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2815270630695435</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4504851736659777</v>
+        <v>0.4382534710743501</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.978696643140424</v>
+        <v>-0.9772918310746632</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2213140574007623</v>
+        <v>-0.2349891355266227</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2776088442304612</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6206413627359459</v>
+        <v>0.6075707079526651</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8251140884081913</v>
+        <v>-0.8218448506932499</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1988622486545293</v>
+        <v>-0.2134156294500755</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2718071190627207</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8119838491786214</v>
+        <v>0.8016047670927647</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7124237634377899</v>
+        <v>-0.7106954904426017</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1342519117633787</v>
+        <v>-0.1454069852760367</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2642581118325218</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9546891447731057</v>
+        <v>0.9461138886002596</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5128286947421349</v>
+        <v>-0.5048861942560516</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1174886081215264</v>
+        <v>-0.1294684676537459</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2546422568953342</v>
       </c>
       <c r="E91" t="n">
-        <v>1.080215595677714</v>
+        <v>1.074095809334097</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3143023850298431</v>
+        <v>-0.3062182228228427</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1391597033835942</v>
+        <v>-0.1522004518035704</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2417906514670426</v>
       </c>
       <c r="E92" t="n">
-        <v>1.146724199629154</v>
+        <v>1.142206764751021</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1780568639091768</v>
+        <v>-0.1703441702148035</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1002011561122809</v>
+        <v>-0.1126453512852841</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2253417384917055</v>
       </c>
       <c r="E93" t="n">
-        <v>1.175524027491592</v>
+        <v>1.16924054315936</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.07803581884612462</v>
+        <v>-0.07074338825713854</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.09566168496644972</v>
+        <v>-0.1070811936914862</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.2050075842912939</v>
       </c>
       <c r="E94" t="n">
-        <v>1.169840244444575</v>
+        <v>1.166995991892385</v>
       </c>
       <c r="F94" t="n">
-        <v>0.08006967983116556</v>
+        <v>0.08992776158787177</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.05495282843225004</v>
+        <v>-0.06455277105306294</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1813099131337208</v>
       </c>
       <c r="E95" t="n">
-        <v>1.188693845479515</v>
+        <v>1.188851247391645</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1636201888089274</v>
+        <v>0.1741283404627308</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08824490686688088</v>
+        <v>-0.0976764294417146</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1552217453265762</v>
       </c>
       <c r="E96" t="n">
-        <v>1.107888425849302</v>
+        <v>1.10728085446848</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2502888296659859</v>
+        <v>0.2635987353557044</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1099978511232564</v>
+        <v>-0.117376852763914</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1287004597326541</v>
       </c>
       <c r="E97" t="n">
-        <v>1.061484768134236</v>
+        <v>1.062468530085049</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3008966924540455</v>
+        <v>0.3153603541596776</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.07560238528459376</v>
+        <v>-0.08243362827103874</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.1018161378783215</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9374882638155319</v>
+        <v>0.9358969304838969</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2787392252834958</v>
+        <v>0.2917894178181998</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1318326443739395</v>
+        <v>-0.138881101999124</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.07579963290930415</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9112383469296003</v>
+        <v>0.9128643086819038</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2506965006184027</v>
+        <v>0.2601091349637809</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1166842843505417</v>
+        <v>-0.1229158260517711</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.04591957147433569</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8507299038685592</v>
+        <v>0.8511344267827335</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2448537416401346</v>
+        <v>0.2550187571254944</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.11647651382653</v>
+        <v>-0.1216141122384555</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.01382349274360878</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7952425818044674</v>
+        <v>0.7963050447113453</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2139525982507595</v>
+        <v>0.2211836420940148</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1006450295044877</v>
+        <v>-0.1050192286425823</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.02818950916032016</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7864831653944291</v>
+        <v>0.7898326780845569</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1780161676923435</v>
+        <v>0.1827177628076686</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08234390918112461</v>
+        <v>-0.08591378454823456</v>
       </c>
     </row>
   </sheetData>
